--- a/linear_regressions/thread_size/author_threshold/politics_regression_metrics.xlsx
+++ b/linear_regressions/thread_size/author_threshold/politics_regression_metrics.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snuzz\Documents\PhD\datasets\reddit_analyses\reddit_analyses\linear_regressions\thread_size\author_threshold\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256A5E49-6BF5-4100-B585-913D38D14F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,20 @@
     <sheet name="p1_mod7" sheetId="11" r:id="rId11"/>
     <sheet name="p1_mod8" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -267,8 +286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +339,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -331,13 +353,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +405,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -409,6 +439,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -443,9 +474,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -618,14 +650,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -641,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,7 +699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -673,7 +707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -681,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -697,7 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -705,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,7 +747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -721,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -729,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -743,14 +777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -761,99 +795,99 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.823996421315046</v>
+        <v>2.8239964213150461</v>
       </c>
       <c r="C2">
-        <v>0.03969073386102664</v>
+        <v>3.9690733861026638E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3">
-        <v>0.1551363206134997</v>
+        <v>0.15513632061349969</v>
       </c>
       <c r="C3">
-        <v>0.03757386836119266</v>
+        <v>3.7573868361192662E-2</v>
       </c>
       <c r="D3">
-        <v>3.658624644195748E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.6586246441957483E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4">
-        <v>-0.01051771247694218</v>
+        <v>-1.051771247694218E-2</v>
       </c>
       <c r="C4">
-        <v>0.001404311087667414</v>
+        <v>1.404311087667414E-3</v>
       </c>
       <c r="D4">
-        <v>7.152014407404457E-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7.1520144074044574E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B5">
-        <v>0.01599380273015436</v>
+        <v>1.5993802730154359E-2</v>
       </c>
       <c r="C5">
-        <v>0.005247503024898127</v>
+        <v>5.2475030248981267E-3</v>
       </c>
       <c r="D5">
-        <v>0.002307113270178145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2.307113270178145E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B6">
-        <v>-0.07628593055701884</v>
+        <v>-7.6285930557018836E-2</v>
       </c>
       <c r="C6">
-        <v>0.01406246005246149</v>
+        <v>1.4062460052461491E-2</v>
       </c>
       <c r="D6">
-        <v>5.859407183788308E-08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>5.859407183788308E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B7">
-        <v>-0.03082062712381264</v>
+        <v>-3.082062712381264E-2</v>
       </c>
       <c r="C7">
-        <v>0.009939154353978213</v>
+        <v>9.9391543539782135E-3</v>
       </c>
       <c r="D7">
-        <v>0.001931415675449937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1.931415675449937E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B8">
-        <v>0.08740537071452724</v>
+        <v>8.7405370714527239E-2</v>
       </c>
       <c r="C8">
-        <v>0.01008894550002475</v>
+        <v>1.0088945500024749E-2</v>
       </c>
       <c r="D8">
         <v>4.865225306678068E-18</v>
@@ -865,14 +899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -883,113 +917,113 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.854298384906545</v>
+        <v>2.8542983849065449</v>
       </c>
       <c r="C2">
-        <v>0.04634090795931789</v>
+        <v>4.634090795931789E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3">
-        <v>0.1550024029530336</v>
+        <v>0.15500240295303361</v>
       </c>
       <c r="C3">
-        <v>0.03757353401405853</v>
+        <v>3.7573534014058531E-2</v>
       </c>
       <c r="D3">
-        <v>3.715114677129976E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.7151146771299762E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4">
-        <v>-0.0105044576754101</v>
+        <v>-1.0504457675410099E-2</v>
       </c>
       <c r="C4">
-        <v>0.001404332012721306</v>
+        <v>1.4043320127213061E-3</v>
       </c>
       <c r="D4">
-        <v>7.6901277413915E-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7.6901277413914998E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B5">
-        <v>0.01604908477282974</v>
+        <v>1.6049084772829739E-2</v>
       </c>
       <c r="C5">
-        <v>0.005247617014650788</v>
+        <v>5.247617014650788E-3</v>
       </c>
       <c r="D5">
-        <v>0.002228045426402506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2.2280454264025059E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B6">
-        <v>-0.0768530235480559</v>
+        <v>-7.6853023548055899E-2</v>
       </c>
       <c r="C6">
-        <v>0.0140694027597569</v>
+        <v>1.40694027597569E-2</v>
       </c>
       <c r="D6">
-        <v>4.744390853126865E-08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>4.7443908531268648E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B7">
-        <v>-0.03123162739500122</v>
+        <v>-3.1231627395001221E-2</v>
       </c>
       <c r="C7">
-        <v>0.009944320466720591</v>
+        <v>9.9443204667205905E-3</v>
       </c>
       <c r="D7">
-        <v>0.001687823075872462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1.6878230758724619E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B8">
-        <v>-0.1471099701266826</v>
+        <v>-0.14710997012668259</v>
       </c>
       <c r="C8">
-        <v>0.1161267633263545</v>
+        <v>0.11612676332635451</v>
       </c>
       <c r="D8">
-        <v>0.2052375504886308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.20523755048863079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B9">
-        <v>0.08160386199242731</v>
+        <v>8.1603861992427307E-2</v>
       </c>
       <c r="C9">
-        <v>0.01107958887511976</v>
+        <v>1.1079588875119759E-2</v>
       </c>
       <c r="D9">
         <v>1.826428584463977E-13</v>
@@ -1001,14 +1035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1019,105 +1053,105 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.854181337511027</v>
+        <v>2.8541813375110272</v>
       </c>
       <c r="C2">
-        <v>0.04634181085355595</v>
+        <v>4.6341810853555952E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B3">
-        <v>0.007948887225681392</v>
+        <v>7.9488872256813919E-3</v>
       </c>
       <c r="C3">
-        <v>0.01210297396499956</v>
+        <v>1.2102973964999561E-2</v>
       </c>
       <c r="D3">
-        <v>0.5113343389317829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.51133433893178293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.1578023646919864</v>
+        <v>0.15780236469198641</v>
       </c>
       <c r="C4">
-        <v>0.03781507168389538</v>
+        <v>3.7815071683895377E-2</v>
       </c>
       <c r="D4">
-        <v>3.016920122355411E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.0169201223554111E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B5">
-        <v>-0.01051000915513373</v>
+        <v>-1.0510009155133729E-2</v>
       </c>
       <c r="C5">
-        <v>0.001404374427374313</v>
+        <v>1.4043744273743129E-3</v>
       </c>
       <c r="D5">
-        <v>7.475558575343494E-14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>7.4755585753434937E-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.01601523168651466</v>
+        <v>1.6015231686514659E-2</v>
       </c>
       <c r="C6">
-        <v>0.005247933592214639</v>
+        <v>5.2479335922146391E-3</v>
       </c>
       <c r="D6">
-        <v>0.002277867630839807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2.2778676308398069E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B7">
-        <v>-0.07693328894199138</v>
+        <v>-7.6933288941991376E-2</v>
       </c>
       <c r="C7">
-        <v>0.01407010361664472</v>
+        <v>1.407010361664472E-2</v>
       </c>
       <c r="D7">
-        <v>4.601471105102593E-08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>4.6014711051025929E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B8">
-        <v>-0.0314192042322954</v>
+        <v>-3.1419204232295397E-2</v>
       </c>
       <c r="C8">
-        <v>0.00994854111877708</v>
+        <v>9.9485411187770802E-3</v>
       </c>
       <c r="D8">
-        <v>0.001589625595623057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1.5896255956230571E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -1125,24 +1159,24 @@
         <v>-0.1475659173556999</v>
       </c>
       <c r="C9">
-        <v>0.1161302422238566</v>
+        <v>0.11613024222385659</v>
       </c>
       <c r="D9">
-        <v>0.2038503591736538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.20385035917365379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B10">
-        <v>0.08169797066612451</v>
+        <v>8.1697970666124511E-2</v>
       </c>
       <c r="C10">
-        <v>0.01108064933294324</v>
+        <v>1.108064933294324E-2</v>
       </c>
       <c r="D10">
-        <v>1.723031390916546E-13</v>
+        <v>1.7230313909165461E-13</v>
       </c>
     </row>
   </sheetData>
@@ -1151,14 +1185,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1192,13 +1226,13 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>0.00242248855355065</v>
+        <v>2.4224885535506502E-3</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1212,13 +1246,13 @@
         <v>38</v>
       </c>
       <c r="E3">
-        <v>0.004858770902163356</v>
+        <v>4.8587709021633563E-3</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1232,13 +1266,13 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>0.006439896093219155</v>
+        <v>6.4398960932191551E-3</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1252,13 +1286,13 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>0.007155890386621788</v>
+        <v>7.1558903866217882E-3</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1272,13 +1306,13 @@
         <v>41</v>
       </c>
       <c r="E6">
-        <v>0.007591156817057021</v>
+        <v>7.5911568170570209E-3</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1292,13 +1326,13 @@
         <v>42</v>
       </c>
       <c r="E7">
-        <v>0.007982954107073059</v>
+        <v>7.9829541070730592E-3</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1312,13 +1346,13 @@
         <v>43</v>
       </c>
       <c r="E8">
-        <v>0.008050635884800594</v>
+        <v>8.0506358848005943E-3</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1332,7 +1366,7 @@
         <v>44</v>
       </c>
       <c r="E9">
-        <v>0.00806882833350453</v>
+        <v>8.0688283335045297E-3</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
@@ -1344,14 +1378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1365,7 +1401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1373,13 +1409,13 @@
         <v>56</v>
       </c>
       <c r="C2">
-        <v>0.00242248855355065</v>
+        <v>2.4224885535506502E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1387,13 +1423,13 @@
         <v>57</v>
       </c>
       <c r="C3">
-        <v>0.004858770902163245</v>
+        <v>4.8587709021632453E-3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1401,13 +1437,13 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>0.006439896093219155</v>
+        <v>6.4398960932191551E-3</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1415,13 +1451,13 @@
         <v>59</v>
       </c>
       <c r="C5">
-        <v>0.007155890386621677</v>
+        <v>7.1558903866216772E-3</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1429,13 +1465,13 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.00759115681705691</v>
+        <v>7.5911568170569099E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1443,13 +1479,13 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>0.007982954107073281</v>
+        <v>7.9829541070732812E-3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1457,13 +1493,13 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>0.008050635884800594</v>
+        <v>8.0506358848005943E-3</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1471,10 +1507,16 @@
         <v>63</v>
       </c>
       <c r="C9">
-        <v>0.00806882833350453</v>
+        <v>8.0688283335045297E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>MAX(C2:C9)</f>
+        <v>8.0688283335045297E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1483,14 +1525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1504,8 +1546,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1518,8 +1560,8 @@
         <v>7355</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1539,14 +1581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1557,32 +1599,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.808297575793392</v>
+        <v>2.8082975757933921</v>
       </c>
       <c r="C2">
-        <v>0.02923716208935349</v>
+        <v>2.923716208935349E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B3">
-        <v>0.07383703267465189</v>
+        <v>7.3837032674651887E-2</v>
       </c>
       <c r="C3">
-        <v>0.009768832140196191</v>
+        <v>9.7688321401961913E-3</v>
       </c>
       <c r="D3">
-        <v>4.22846431818534E-14</v>
+        <v>4.2284643181853398E-14</v>
       </c>
     </row>
   </sheetData>
@@ -1591,14 +1633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +1651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -1617,35 +1659,35 @@
         <v>2.953095687916476</v>
       </c>
       <c r="C2">
-        <v>0.03488271439876593</v>
+        <v>3.4882714398765932E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B3">
-        <v>-0.01066808797581166</v>
+        <v>-1.066808797581166E-2</v>
       </c>
       <c r="C3">
-        <v>0.001405724852223533</v>
+        <v>1.405724852223533E-3</v>
       </c>
       <c r="D3">
-        <v>3.342593648792032E-14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.3425936487920317E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4">
-        <v>0.07444152993257402</v>
+        <v>7.4441529932574024E-2</v>
       </c>
       <c r="C4">
-        <v>0.009757428635823762</v>
+        <v>9.757428635823762E-3</v>
       </c>
       <c r="D4">
         <v>2.451297961962751E-14</v>
@@ -1657,14 +1699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1675,60 +1717,60 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.906760489327506</v>
+        <v>2.9067604893275059</v>
       </c>
       <c r="C2">
-        <v>0.03566893328462232</v>
+        <v>3.5668933284622319E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B3">
-        <v>-0.0106702232550388</v>
+        <v>-1.06702232550388E-2</v>
       </c>
       <c r="C3">
-        <v>0.001404637566636847</v>
+        <v>1.4046375666368471E-3</v>
       </c>
       <c r="D3">
-        <v>3.157562539427835E-14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.1575625394278349E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B4">
-        <v>-0.08510933433949872</v>
+        <v>-8.5109334339498716E-2</v>
       </c>
       <c r="C4">
-        <v>0.01391026973551715</v>
+        <v>1.391026973551715E-2</v>
       </c>
       <c r="D4">
-        <v>9.59797358896637E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9.5979735889663698E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B5">
-        <v>0.09014318319522577</v>
+        <v>9.0143183195225768E-2</v>
       </c>
       <c r="C5">
-        <v>0.01008196253438002</v>
+        <v>1.0081962534380019E-2</v>
       </c>
       <c r="D5">
-        <v>4.132687763988533E-19</v>
+        <v>4.1326877639885328E-19</v>
       </c>
     </row>
   </sheetData>
@@ -1737,14 +1779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1755,74 +1797,74 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.86569652811993</v>
+        <v>2.8656965281199298</v>
       </c>
       <c r="C2">
-        <v>0.03702449499818058</v>
+        <v>3.7024494998180578E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3">
-        <v>0.1548015857147595</v>
+        <v>0.15480158571475949</v>
       </c>
       <c r="C3">
-        <v>0.03758502142138064</v>
+        <v>3.7585021421380642E-2</v>
       </c>
       <c r="D3">
-        <v>3.823103813519549E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.8231038135195489E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4">
-        <v>-0.01063947546394815</v>
+        <v>-1.063947546394815E-2</v>
       </c>
       <c r="C4">
-        <v>0.001404181050708626</v>
+        <v>1.4041810507086261E-3</v>
       </c>
       <c r="D4">
-        <v>3.66675224525599E-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.6667522452559897E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B5">
-        <v>-0.08339914922929251</v>
+        <v>-8.3399149229292507E-2</v>
       </c>
       <c r="C5">
-        <v>0.01391175025983036</v>
+        <v>1.3911750259830361E-2</v>
       </c>
       <c r="D5">
-        <v>2.066145965600774E-09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2.0661459656007739E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B6">
-        <v>0.08961433664384097</v>
+        <v>8.9614336643840969E-2</v>
       </c>
       <c r="C6">
-        <v>0.01007936127816445</v>
+        <v>1.007936127816445E-2</v>
       </c>
       <c r="D6">
-        <v>6.489136891862848E-19</v>
+        <v>6.4891368918628478E-19</v>
       </c>
     </row>
   </sheetData>
@@ -1831,14 +1873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1849,85 +1891,85 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.867656232161616</v>
+        <v>2.8676562321616159</v>
       </c>
       <c r="C2">
-        <v>0.0370221929279753</v>
+        <v>3.7022192927975303E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3">
-        <v>0.1539578223925765</v>
+        <v>0.15395782239257649</v>
       </c>
       <c r="C3">
-        <v>0.03757849876592436</v>
+        <v>3.7578498765924361E-2</v>
       </c>
       <c r="D3">
-        <v>4.200023466410408E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4.2000234664104078E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4">
-        <v>-0.01064819684023758</v>
+        <v>-1.064819684023758E-2</v>
       </c>
       <c r="C4">
-        <v>0.001403905685154866</v>
+        <v>1.403905685154866E-3</v>
       </c>
       <c r="D4">
-        <v>3.455991273452082E-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.4559912734520818E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B5">
-        <v>-0.07670519111366249</v>
+        <v>-7.6705191113662488E-2</v>
       </c>
       <c r="C5">
-        <v>0.01406426485683653</v>
+        <v>1.406426485683653E-2</v>
       </c>
       <c r="D5">
-        <v>4.977118865182796E-08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4.9771188651827961E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B6">
-        <v>-0.03190911873801934</v>
+        <v>-3.190911873801934E-2</v>
       </c>
       <c r="C6">
-        <v>0.009934486252024002</v>
+        <v>9.9344862520240017E-3</v>
       </c>
       <c r="D6">
-        <v>0.001320125605185975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1.320125605185975E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B7">
-        <v>0.08813548379323018</v>
+        <v>8.8135483793230177E-2</v>
       </c>
       <c r="C7">
-        <v>0.01008787836613463</v>
+        <v>1.0087878366134629E-2</v>
       </c>
       <c r="D7">
         <v>2.555685213797169E-18</v>
